--- a/data/trans_bre/P18_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,32</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,91%</t>
+          <t>-7,06%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-8,35%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,41%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 27,5</t>
+          <t>-18,87; 24,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 15,25</t>
+          <t>-16,35; 23,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 23,43</t>
+          <t>-25,58; 15,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 28,58</t>
+          <t>-25,83; 17,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 123,79</t>
+          <t>-25,38; 15,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 125,88</t>
+          <t>-25,75; 51,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 145,74</t>
+          <t>-20,0; 40,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 223,55</t>
+          <t>-32,56; 28,33</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-33,57; 32,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-29,64; 22,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>-15,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>23,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>141,57%</t>
+          <t>-18,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,66%</t>
+          <t>-10,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>148,28%</t>
+          <t>41,13%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-11,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,18%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 16,89</t>
+          <t>-33,01; -0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 20,61</t>
+          <t>-22,42; 3,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 7,51</t>
+          <t>-2,19; 53,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 26,1</t>
+          <t>-28,89; 4,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 182,26</t>
+          <t>-17,81; 44,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 619,95</t>
+          <t>-35,84; -1,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,48; 39,09</t>
+          <t>-23,53; 4,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 551,86</t>
+          <t>-2,82; 155,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-29,93; 5,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,98; 192,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-43,33%</t>
+          <t>-12,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>-7,99%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 14,21</t>
+          <t>-21,76; 0,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 2,06</t>
+          <t>-4,27; 21,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 10,64</t>
+          <t>-18,51; 7,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 13,98</t>
+          <t>-16,0; 13,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 165,94</t>
+          <t>-16,84; 13,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,85; 15,06</t>
+          <t>-23,02; 0,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 79,34</t>
+          <t>-5,09; 33,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 79,81</t>
+          <t>-20,81; 9,3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; 21,04</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-20,13; 20,49</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>-11,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>-20,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,8</t>
+          <t>-16,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,75%</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,97%</t>
+          <t>-13,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>-24,28%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-11,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 21,14</t>
+          <t>-22,29; 1,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 21,17</t>
+          <t>-22,58; -0,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 19,94</t>
+          <t>-32,12; -7,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 28,38</t>
+          <t>-28,4; -4,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 176,59</t>
+          <t>-22,43; 7,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,51; 316,54</t>
+          <t>-24,86; 1,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 118,8</t>
+          <t>-24,26; -0,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,52; 196,19</t>
+          <t>-36,74; -10,38</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-33,07; -5,51</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-28,23; 10,97</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>-11,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>-13,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>77,81%</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>-13,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>-2,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-17,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-15,68%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 19,9</t>
+          <t>-27,27; 3,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 13,8</t>
+          <t>-14,93; 10,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 7,25</t>
+          <t>-17,73; 18,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 20,7</t>
+          <t>-31,02; 6,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 240,27</t>
+          <t>-30,38; 6,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 144,27</t>
+          <t>-30,84; 4,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-57,92; 55,77</t>
+          <t>-16,61; 13,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 143,35</t>
+          <t>-20,26; 26,95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-38,05; 8,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-35,61; 8,65</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,29</t>
+          <t>-28,74</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,55</t>
+          <t>-26,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,74</t>
+          <t>-22,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>-24,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>293,38%</t>
+          <t>-23,2</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>162,14%</t>
+          <t>-29,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>145,07%</t>
+          <t>-27,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>-23,92%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-27,89%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-27,12%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 27,42</t>
+          <t>-42,8; -15,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 25,35</t>
+          <t>-42,94; -9,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,98; 30,13</t>
+          <t>-39,74; -8,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 27,54</t>
+          <t>-44,4; -7,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,11; 1070,66</t>
+          <t>-41,8; -2,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,66; 540,03</t>
+          <t>-43,99; -16,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 398,36</t>
+          <t>-44,37; -10,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 348,03</t>
+          <t>-41,35; -9,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-47,86; -9,34</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; -3,85</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>-12,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>-11,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>-6,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-14,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 14,25</t>
+          <t>-18,83; -6,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,29</t>
+          <t>-11,35; 0,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 9,9</t>
+          <t>-12,72; 4,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,45</t>
+          <t>-18,57; -4,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,23; 108,62</t>
+          <t>-13,12; 8,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 78,73</t>
+          <t>-21,16; -7,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 52,83</t>
+          <t>-13,23; 0,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,25; 104,59</t>
+          <t>-15,45; 6,04</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-22,33; -5,77</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 14,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
